--- a/i_input/Data_Model_1.xlsx
+++ b/i_input/Data_Model_1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgiolimoncella/Desktop/GitHub Repo/datamodel_page/i_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Desktop\GitHub_Repo\datamodel_page\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EAB7F1-6D90-6747-9BD9-ED99040D4140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9300DF-3E75-48CC-AC83-40672A44859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="19860" windowHeight="15600" activeTab="2" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId1"/>
+    <sheet name="table1" sheetId="1" r:id="rId2"/>
+    <sheet name="table2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="159">
   <si>
     <t>Variable name</t>
   </si>
@@ -94,6 +96,423 @@
   </si>
   <si>
     <t>Notes for var 3</t>
+  </si>
+  <si>
+    <t>var 4</t>
+  </si>
+  <si>
+    <t>var 5</t>
+  </si>
+  <si>
+    <t>var 6</t>
+  </si>
+  <si>
+    <t>var 7</t>
+  </si>
+  <si>
+    <t>var 8</t>
+  </si>
+  <si>
+    <t>var 9</t>
+  </si>
+  <si>
+    <t>var 10</t>
+  </si>
+  <si>
+    <t>var 11</t>
+  </si>
+  <si>
+    <t>var 12</t>
+  </si>
+  <si>
+    <t>var 13</t>
+  </si>
+  <si>
+    <t>var 14</t>
+  </si>
+  <si>
+    <t>var 15</t>
+  </si>
+  <si>
+    <t>var 16</t>
+  </si>
+  <si>
+    <t>var 17</t>
+  </si>
+  <si>
+    <t>var 18</t>
+  </si>
+  <si>
+    <t>var 19</t>
+  </si>
+  <si>
+    <t>var 20</t>
+  </si>
+  <si>
+    <t>var 21</t>
+  </si>
+  <si>
+    <t>var 22</t>
+  </si>
+  <si>
+    <t>var 23</t>
+  </si>
+  <si>
+    <t>var 24</t>
+  </si>
+  <si>
+    <t>var 25</t>
+  </si>
+  <si>
+    <t>var 26</t>
+  </si>
+  <si>
+    <t>var 27</t>
+  </si>
+  <si>
+    <t>var 28</t>
+  </si>
+  <si>
+    <t>var 29</t>
+  </si>
+  <si>
+    <t>var 30</t>
+  </si>
+  <si>
+    <t>Description of var 4</t>
+  </si>
+  <si>
+    <t>Description of var 5</t>
+  </si>
+  <si>
+    <t>Description of var 6</t>
+  </si>
+  <si>
+    <t>Description of var 7</t>
+  </si>
+  <si>
+    <t>Description of var 8</t>
+  </si>
+  <si>
+    <t>Description of var 9</t>
+  </si>
+  <si>
+    <t>Description of var 10</t>
+  </si>
+  <si>
+    <t>Description of var 11</t>
+  </si>
+  <si>
+    <t>Description of var 12</t>
+  </si>
+  <si>
+    <t>Description of var 13</t>
+  </si>
+  <si>
+    <t>Description of var 14</t>
+  </si>
+  <si>
+    <t>Description of var 15</t>
+  </si>
+  <si>
+    <t>Description of var 16</t>
+  </si>
+  <si>
+    <t>Description of var 17</t>
+  </si>
+  <si>
+    <t>Description of var 18</t>
+  </si>
+  <si>
+    <t>Description of var 19</t>
+  </si>
+  <si>
+    <t>Description of var 20</t>
+  </si>
+  <si>
+    <t>Description of var 21</t>
+  </si>
+  <si>
+    <t>Description of var 22</t>
+  </si>
+  <si>
+    <t>Description of var 23</t>
+  </si>
+  <si>
+    <t>Description of var 24</t>
+  </si>
+  <si>
+    <t>Description of var 25</t>
+  </si>
+  <si>
+    <t>Description of var 26</t>
+  </si>
+  <si>
+    <t>Description of var 27</t>
+  </si>
+  <si>
+    <t>Description of var 28</t>
+  </si>
+  <si>
+    <t>Description of var 29</t>
+  </si>
+  <si>
+    <t>Description of var 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type of var 30</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 4</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 5</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 6</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 7</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 8</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 9</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 10</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 11</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 12</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 13</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 14</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 15</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 16</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 17</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 18</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 19</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 20</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 21</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 22</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 23</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 24</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 25</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 26</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 27</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 28</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 29</t>
+  </si>
+  <si>
+    <t>Vocabulary of var 30</t>
+  </si>
+  <si>
+    <t>Notes for var 4</t>
+  </si>
+  <si>
+    <t>Notes for var 5</t>
+  </si>
+  <si>
+    <t>Notes for var 6</t>
+  </si>
+  <si>
+    <t>Notes for var 7</t>
+  </si>
+  <si>
+    <t>Notes for var 8</t>
+  </si>
+  <si>
+    <t>Notes for var 9</t>
+  </si>
+  <si>
+    <t>Notes for var 10</t>
+  </si>
+  <si>
+    <t>Notes for var 11</t>
+  </si>
+  <si>
+    <t>Notes for var 12</t>
+  </si>
+  <si>
+    <t>Notes for var 13</t>
+  </si>
+  <si>
+    <t>Notes for var 14</t>
+  </si>
+  <si>
+    <t>Notes for var 15</t>
+  </si>
+  <si>
+    <t>Notes for var 16</t>
+  </si>
+  <si>
+    <t>Notes for var 17</t>
+  </si>
+  <si>
+    <t>Notes for var 18</t>
+  </si>
+  <si>
+    <t>Notes for var 19</t>
+  </si>
+  <si>
+    <t>Notes for var 20</t>
+  </si>
+  <si>
+    <t>Notes for var 21</t>
+  </si>
+  <si>
+    <t>Notes for var 22</t>
+  </si>
+  <si>
+    <t>Notes for var 23</t>
+  </si>
+  <si>
+    <t>Notes for var 24</t>
+  </si>
+  <si>
+    <t>Notes for var 25</t>
+  </si>
+  <si>
+    <t>Notes for var 26</t>
+  </si>
+  <si>
+    <t>Notes for var 27</t>
+  </si>
+  <si>
+    <t>Notes for var 28</t>
+  </si>
+  <si>
+    <t>Notes for var 29</t>
+  </si>
+  <si>
+    <t>Notes for var 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here goes the description of the table 1 </t>
+  </si>
+  <si>
+    <t>here goes the description of the table 2</t>
+  </si>
+  <si>
+    <t>name_table 1</t>
+  </si>
+  <si>
+    <t>name_table 2</t>
   </si>
 </sst>
 </file>
@@ -450,92 +869,1136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2998D07D-5949-4B48-A101-DB98049FC7F5}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87FEA8-A6F6-49F1-8D04-8D37CFB2FED4}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="127.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2998D07D-5949-4B48-A101-DB98049FC7F5}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C49FDF-B722-4848-AD6A-BD1494280715}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/i_input/Data_Model_1.xlsx
+++ b/i_input/Data_Model_1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Desktop\GitHub_Repo\datamodel_page\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9300DF-3E75-48CC-AC83-40672A44859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A205E47-C69D-4AA5-A460-D77DAFEA0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="19860" windowHeight="15600" activeTab="2" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="19860" windowHeight="15600" activeTab="3" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="table1" sheetId="1" r:id="rId2"/>
     <sheet name="table2" sheetId="3" r:id="rId3"/>
+    <sheet name="table3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="181">
   <si>
     <t>Variable name</t>
   </si>
@@ -513,6 +514,72 @@
   </si>
   <si>
     <t>name_table 2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Format/Vocabulary</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>datasource</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Monday of the week</t>
+  </si>
+  <si>
+    <t>YYYYMMDD eg 20210104</t>
+  </si>
+  <si>
+    <t>vx_manufacturer</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>complete dose will be 1 for vaccines with 1 dose, and 2 for vaccines with 2 doses</t>
+  </si>
+  <si>
+    <t>birth_cohort</t>
+  </si>
+  <si>
+    <t>Classification of birth year</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>number of doses administered in this week for this vaccine manufacturer in this birth cohort</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>DOSES_BIRTHCOHORTS</t>
+  </si>
+  <si>
+    <t>Here goes the description of DOSES_BIRTHCOHORTS</t>
+  </si>
+  <si>
+    <t>Pfizer Moderna AstraZeneca J&amp;J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1940;  1940-1949; 1950-1959; 1960-1969; 1970-1979; 1980-1989;  1990+ all_birth cohorts: any age </t>
+  </si>
+  <si>
+    <t>ARS; BIFAP; CPRD; PHARMO</t>
+  </si>
+  <si>
+    <t>1 = dose 1; 2 = dose 2; UKN = unknown dose</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -870,15 +937,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87FEA8-A6F6-49F1-8D04-8D37CFB2FED4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="127.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -896,6 +963,14 @@
       </c>
       <c r="B2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C49FDF-B722-4848-AD6A-BD1494280715}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2001,4 +2076,121 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB04123-84A4-4EDD-BACC-BC7956129F3E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="68.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>